--- a/DZmda_test_input_2s_uncertainty.xlsx
+++ b/DZmda_test_input_2s_uncertainty.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurtC06868/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurtC06868/Documents/MATLAB/DZmda/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C03AF4A1-6B4B-6941-9390-6A54AE68B3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8D6168-D627-E14C-849E-A5AEC53DC329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{8CF55953-EB86-904B-BE48-1C8D2BCE03F1}"/>
+    <workbookView xWindow="3280" yWindow="3120" windowWidth="27640" windowHeight="16940" xr2:uid="{8CF55953-EB86-904B-BE48-1C8D2BCE03F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
